--- a/doc/Git 简要说明文档.xlsx
+++ b/doc/Git 简要说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="145">
   <si>
     <t>git status</t>
   </si>
@@ -254,135 +254,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>git reset xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回滚到xxx commit 并且保留修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回滚到xxx commit 删除修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git checkout - </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切到上一个分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit --amend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有push可以修改注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git 简要说明文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有远程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于git fetch，再做git merge。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull &lt;远程&gt; &lt;本地&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取回分支代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取回的代码对你本地的开发代码没有影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin :test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚提交到远程的test将被删除，但是本地还会保存的，不用担心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本地dev分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建本地dev分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push --delete origin dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除远程dev分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送本地分支dev到远程分支(创建远程分支)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地分支重命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -m oldname newname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reflog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git reset HEAD </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如果后面什么都不跟的话 就是上一次add 里面的全部撤销了 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout -b dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git reset HEAD XXX/XXX/XXX.Java </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是对某个文件进行撤销了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset –hard commit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回退到上一个commit节点， 代码也发生了改变，变成上一次的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除未跟踪文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看哪些文件将被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件但不删除文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件和文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交本地test分支作为远程的test分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin 本地test:远程test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --name-status branchName1..branchName2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较两个分支列出文件名和状态 M ==修改，D ==删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff branch1 branch2 filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以branch2向branch1比较filename的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log --graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch &lt;远程&gt; &lt;本地&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge &lt;name&gt; -m""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git mergetool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用工具解决冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase --continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决完冲突继续合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase&lt;name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge --no-ff &lt;name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gti stash save "message"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存仓储并提交注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset origin/luandou_dev --hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase --abort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull origin master:cxf_dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如拉取远程的master分支到本地cxf_dev分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch --delete --remotes origin/release_5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本地的远程分支release_5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git revert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>回滚版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git reset xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git reset --hard xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回滚到xxx commit 并且保留修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回滚到xxx commit 删除修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">git checkout - </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切到上一个分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git commit --amend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有push可以修改注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Git 简要说明文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git branch -r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看所有远程分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相当于git fetch，再做git merge。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull &lt;远程&gt; &lt;本地&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取回分支代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取回的代码对你本地的开发代码没有影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push origin :test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚提交到远程的test将被删除，但是本地还会保存的，不用担心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除本地dev分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建本地dev分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push --delete origin dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除远程dev分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push origin dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送本地分支dev到远程分支(创建远程分支)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地分支重命名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git branch -m oldname newname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git reflog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">git reset HEAD </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">如果后面什么都不跟的话 就是上一次add 里面的全部撤销了 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git checkout -b dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">git reset HEAD XXX/XXX/XXX.Java </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是对某个文件进行撤销了</t>
+    <t>回滚版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git revert </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -390,123 +542,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回退到上一个commit节点， 代码也发生了改变，变成上一次的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除未跟踪文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看哪些文件将被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文件但不删除文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文件和文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交本地test分支作为远程的test分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push origin 本地test:远程test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff --name-status branchName1..branchName2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较两个分支列出文件名和状态 M ==修改，D ==删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff branch1 branch2 filename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以branch2向branch1比较filename的区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase --abort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git log --graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch &lt;远程&gt; &lt;本地&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git merge &lt;name&gt; -m""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git mergetool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用工具解决冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase --continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决完冲突继续合并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消合并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase&lt;name&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git merge --no-ff &lt;name&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clean -n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clean -f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clean -df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gti stash save "message"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存仓储并提交注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git reset origin/luandou_dev --hard</t>
+    <t>git revert commit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把commit_id的提交内容还原到上一个commit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -879,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -916,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -963,10 +1003,10 @@
         <v>49</v>
       </c>
       <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -974,424 +1014,454 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
         <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
         <v>102</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
         <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>126</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
         <v>115</v>
       </c>
-      <c r="D32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
         <v>113</v>
       </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="1" t="s">
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
         <v>81</v>
       </c>
-      <c r="D36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>97</v>
       </c>
-      <c r="D38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
         <v>106</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
         <v>107</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
         <v>129</v>
       </c>
-      <c r="D49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>38</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>40</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>41</v>
       </c>
     </row>

--- a/doc/Git 简要说明文档.xlsx
+++ b/doc/Git 简要说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>git status</t>
   </si>
@@ -382,171 +382,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>回退到上一个commit节点， 代码也发生了改变，变成上一次的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除未跟踪文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看哪些文件将被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件但不删除文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件和文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交本地test分支作为远程的test分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin 本地test:远程test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --name-status branchName1..branchName2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较两个分支列出文件名和状态 M ==修改，D ==删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff branch1 branch2 filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以branch2向branch1比较filename的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log --graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch &lt;远程&gt; &lt;本地&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge &lt;name&gt; -m""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git mergetool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用工具解决冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase --continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决完冲突继续合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase&lt;name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge --no-ff &lt;name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gti stash save "message"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存仓储并提交注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset origin/luandou_dev --hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase --abort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull origin master:cxf_dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如拉取远程的master分支到本地cxf_dev分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch --delete --remotes origin/release_5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本地的远程分支release_5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git revert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回滚版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回滚版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>git reset –hard commit_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回退到上一个commit节点， 代码也发生了改变，变成上一次的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除未跟踪文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看哪些文件将被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文件但不删除文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文件和文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交本地test分支作为远程的test分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push origin 本地test:远程test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff --name-status branchName1..branchName2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较两个分支列出文件名和状态 M ==修改，D ==删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff branch1 branch2 filename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以branch2向branch1比较filename的区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git log --graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch &lt;远程&gt; &lt;本地&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git merge &lt;name&gt; -m""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git mergetool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用工具解决冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase --continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决完冲突继续合并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消合并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase&lt;name&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git merge --no-ff &lt;name&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clean -n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clean -f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clean -df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gti stash save "message"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存仓储并提交注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git reset origin/luandou_dev --hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase --abort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull origin master:cxf_dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如拉取远程的master分支到本地cxf_dev分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git branch --delete --remotes origin/release_5.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除本地的远程分支release_5.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git revert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回滚版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回滚版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">git revert </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git reset –hard commit_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git revert commit_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>把commit_id的提交内容还原到上一个commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout -b 本地分支名 origin/远程分支名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从远程拉取分支并在本地创建新分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch source survival_dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先更新远程分支内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建本地分支并获取远程分支内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,17 +914,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="39.125" customWidth="1"/>
-    <col min="3" max="3" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="59.375" customWidth="1"/>
     <col min="4" max="4" width="48.125" customWidth="1"/>
     <col min="5" max="5" width="54.25" customWidth="1"/>
   </cols>
@@ -956,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -1014,7 +1026,7 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -1033,10 +1045,10 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1057,21 +1069,21 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1105,363 +1117,382 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>83</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
         <v>112</v>
       </c>
-      <c r="D37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="1" t="s">
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" t="s">
         <v>136</v>
       </c>
-      <c r="D43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>23</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>24</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
         <v>130</v>
-      </c>
-      <c r="D45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
         <v>33</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+    <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>97</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" t="s">
         <v>106</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
         <v>127</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
+    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
         <v>128</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D56" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>40</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>41</v>
       </c>
     </row>
